--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC7F4E6-34D9-494E-8A54-250FA4C5401B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EECD72-8915-4E54-994C-276073740A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8250" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-28920" yWindow="12570" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sam" sheetId="1" r:id="rId1"/>
@@ -73,8 +73,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,57 +432,57 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2024</v>
       </c>
       <c r="B2" s="1"/>
@@ -485,8 +494,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2025</v>
       </c>
       <c r="B3" s="1"/>
@@ -498,8 +507,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2026</v>
       </c>
       <c r="B4" s="1"/>
@@ -511,8 +520,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2027</v>
       </c>
       <c r="B5" s="1"/>
@@ -524,8 +533,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2028</v>
       </c>
       <c r="B6" s="1"/>
@@ -537,8 +546,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2029</v>
       </c>
       <c r="B7" s="1"/>
@@ -550,8 +559,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2030</v>
       </c>
       <c r="B8" s="1"/>
@@ -563,8 +572,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2031</v>
       </c>
       <c r="B9" s="1"/>
@@ -576,8 +585,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2032</v>
       </c>
       <c r="B10" s="1"/>
@@ -589,8 +598,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2033</v>
       </c>
       <c r="B11" s="1"/>
@@ -602,8 +611,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2034</v>
       </c>
       <c r="B12" s="1"/>
@@ -615,8 +624,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2035</v>
       </c>
       <c r="B13" s="1"/>
@@ -628,8 +637,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2036</v>
       </c>
       <c r="B14" s="1"/>
@@ -641,8 +650,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>2037</v>
       </c>
       <c r="B15" s="1"/>
@@ -654,8 +663,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2038</v>
       </c>
       <c r="B16" s="1"/>
@@ -667,8 +676,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>2039</v>
       </c>
       <c r="B17" s="1"/>
@@ -680,8 +689,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2040</v>
       </c>
       <c r="B18" s="1"/>
@@ -693,8 +702,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>2041</v>
       </c>
       <c r="B19" s="1"/>
@@ -706,8 +715,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>2042</v>
       </c>
       <c r="B20" s="1"/>
@@ -719,8 +728,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>2043</v>
       </c>
       <c r="B21" s="1"/>
@@ -732,8 +741,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>2044</v>
       </c>
       <c r="B22" s="1"/>
@@ -745,8 +754,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>2045</v>
       </c>
       <c r="B23" s="1"/>
@@ -758,8 +767,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>2046</v>
       </c>
       <c r="B24" s="1"/>
@@ -771,8 +780,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>2047</v>
       </c>
       <c r="B25" s="1"/>
@@ -784,8 +793,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>2048</v>
       </c>
       <c r="B26" s="1"/>
@@ -797,8 +806,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>2049</v>
       </c>
       <c r="B27" s="1"/>
@@ -810,8 +819,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>2050</v>
       </c>
       <c r="B28" s="1"/>
@@ -823,8 +832,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>2051</v>
       </c>
       <c r="B29" s="1"/>
@@ -836,8 +845,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>2052</v>
       </c>
       <c r="B30" s="1"/>
@@ -849,8 +858,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>2053</v>
       </c>
       <c r="B31" s="1"/>
@@ -862,8 +871,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>2054</v>
       </c>
       <c r="B32" s="1"/>
@@ -875,13 +884,13 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>2055</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>2056</v>
       </c>
     </row>
@@ -896,53 +905,53 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2024</v>
       </c>
       <c r="B2" s="1"/>
@@ -954,8 +963,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2025</v>
       </c>
       <c r="B3" s="1"/>
@@ -967,8 +976,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2026</v>
       </c>
       <c r="B4" s="1"/>
@@ -980,8 +989,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2027</v>
       </c>
       <c r="B5" s="1"/>
@@ -993,8 +1002,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2028</v>
       </c>
       <c r="B6" s="1"/>
@@ -1006,8 +1015,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2029</v>
       </c>
       <c r="B7" s="1"/>
@@ -1019,8 +1028,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2030</v>
       </c>
       <c r="B8" s="1"/>
@@ -1032,8 +1041,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2031</v>
       </c>
       <c r="B9" s="1"/>
@@ -1045,8 +1054,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2032</v>
       </c>
       <c r="B10" s="1"/>
@@ -1058,8 +1067,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2033</v>
       </c>
       <c r="B11" s="1"/>
@@ -1071,8 +1080,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2034</v>
       </c>
       <c r="B12" s="1"/>
@@ -1084,8 +1093,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2035</v>
       </c>
       <c r="B13" s="1"/>
@@ -1097,8 +1106,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2036</v>
       </c>
       <c r="B14" s="1"/>
@@ -1110,8 +1119,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>2037</v>
       </c>
       <c r="B15" s="1"/>
@@ -1123,8 +1132,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2038</v>
       </c>
       <c r="B16" s="1"/>
@@ -1136,8 +1145,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>2039</v>
       </c>
       <c r="B17" s="1"/>
@@ -1149,8 +1158,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2040</v>
       </c>
       <c r="B18" s="1"/>
@@ -1162,8 +1171,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>2041</v>
       </c>
       <c r="B19" s="1"/>
@@ -1175,8 +1184,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>2042</v>
       </c>
       <c r="B20" s="1"/>
@@ -1188,8 +1197,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>2043</v>
       </c>
       <c r="B21" s="1"/>
@@ -1201,8 +1210,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>2044</v>
       </c>
       <c r="B22" s="1"/>
@@ -1214,8 +1223,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>2045</v>
       </c>
       <c r="B23" s="1"/>
@@ -1227,8 +1236,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>2046</v>
       </c>
       <c r="B24" s="1"/>
@@ -1240,8 +1249,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>2047</v>
       </c>
       <c r="B25" s="1"/>
@@ -1253,8 +1262,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>2048</v>
       </c>
       <c r="B26" s="1"/>
@@ -1266,8 +1275,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>2049</v>
       </c>
       <c r="B27" s="1"/>
@@ -1279,8 +1288,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>2050</v>
       </c>
       <c r="B28" s="1"/>
@@ -1292,8 +1301,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>2051</v>
       </c>
       <c r="B29" s="1"/>
@@ -1305,8 +1314,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>2052</v>
       </c>
       <c r="B30" s="1"/>
@@ -1318,8 +1327,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>2053</v>
       </c>
       <c r="B31" s="1"/>
@@ -1331,8 +1340,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>2054</v>
       </c>
       <c r="B32" s="1"/>
@@ -1344,8 +1353,8 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>2055</v>
       </c>
       <c r="B33" s="1"/>
@@ -1357,8 +1366,8 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>2056</v>
       </c>
       <c r="B34" s="1"/>
@@ -1370,8 +1379,8 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>2057</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EECD72-8915-4E54-994C-276073740A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F4FFD-B654-4B09-80BA-BCAE531038B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="12570" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-28920" yWindow="12570" windowWidth="29040" windowHeight="15720" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sam" sheetId="1" r:id="rId1"/>
-    <sheet name="Casey" sheetId="2" r:id="rId2"/>
+    <sheet name="Kim" sheetId="1" r:id="rId1"/>
+    <sheet name="Sam" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -431,7 +431,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -445,7 +445,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -904,7 +904,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -918,7 +918,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F4FFD-B654-4B09-80BA-BCAE531038B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE97223A-B551-4D46-9F4D-43961E5EC0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="12570" windowWidth="29040" windowHeight="15720" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-28905" yWindow="12690" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>big ticket items</t>
-  </si>
-  <si>
     <t>Roth X</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>anticipated wages</t>
+  </si>
+  <si>
+    <t>big-ticket items</t>
   </si>
 </sst>
 </file>
@@ -431,8 +431,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,28 +457,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,8 +904,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,28 +926,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
